--- a/frasesfull.xlsx
+++ b/frasesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose-\Documents\GitHub\Kneechat-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58453D4B-DCAD-47D1-AADE-2A0EDDBF46E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4C0C7-CAEC-4A8C-9696-7E92EC49172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -963,9 +963,6 @@
     <t>Mi casa está llena de escaleras, así que eso me preocupa.</t>
   </si>
   <si>
-    <t>Rosario Torrado Botana, 2 de octubre de 1949.</t>
-  </si>
-  <si>
     <t>Interacción Irrelevante</t>
   </si>
   <si>
@@ -1035,9 +1032,6 @@
     <t>En el Costa del Sol.</t>
   </si>
   <si>
-    <t>Matilde Ibáñez Negrete.</t>
-  </si>
-  <si>
     <t>Fecha de nacimiento: 6 de mayo de 1954.</t>
   </si>
   <si>
@@ -1458,15 +1452,9 @@
     <t>No, creo que eso es todo.</t>
   </si>
   <si>
-    <t>Sí, mi nombre es Dolores Ortega Guido, nací el 5 de noviembre de 1956.</t>
-  </si>
-  <si>
     <t>No sé mucho sobre eso, así que no tengo preguntas específicas.</t>
   </si>
   <si>
-    <t>La última vez que fui, la doctora María Luisa Beltrán me preguntó si estaba haciendo algo.</t>
-  </si>
-  <si>
     <t>Así que desde entonces empecé a nadar.</t>
   </si>
   <si>
@@ -1554,9 +1542,6 @@
     <t>Perfecto, gracias.</t>
   </si>
   <si>
-    <t>¿Francisca Márquez Cuevas?</t>
-  </si>
-  <si>
     <t>No, dudas no tengo.</t>
   </si>
   <si>
@@ -1723,6 +1708,21 @@
   </si>
   <si>
     <t>Vale.</t>
+  </si>
+  <si>
+    <t>Sí, mi nombre es ---- nací el 5 de noviembre de 1956.</t>
+  </si>
+  <si>
+    <t>La última vez que fui, la doctora -- me preguntó si estaba haciendo algo.</t>
+  </si>
+  <si>
+    <t>¿Fr----?</t>
+  </si>
+  <si>
+    <t>nombre---</t>
+  </si>
+  <si>
+    <t>nombre-----, 2 de octubre de 1949.</t>
   </si>
 </sst>
 </file>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6783,10 +6783,10 @@
         <v>85</v>
       </c>
       <c r="B282" t="s">
-        <v>311</v>
+        <v>564</v>
       </c>
       <c r="C282" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
@@ -6794,10 +6794,10 @@
         <v>85</v>
       </c>
       <c r="B283" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C283" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.45">
@@ -6805,10 +6805,10 @@
         <v>25</v>
       </c>
       <c r="B284" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C284" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
@@ -6816,10 +6816,10 @@
         <v>25</v>
       </c>
       <c r="B285" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C285" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.45">
@@ -6827,10 +6827,10 @@
         <v>55</v>
       </c>
       <c r="B286" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C286" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.45">
@@ -6838,10 +6838,10 @@
         <v>55</v>
       </c>
       <c r="B287" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C287" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.45">
@@ -6849,10 +6849,10 @@
         <v>91</v>
       </c>
       <c r="B288" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C288" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.45">
@@ -6860,10 +6860,10 @@
         <v>57</v>
       </c>
       <c r="B289" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C289" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.45">
@@ -6871,10 +6871,10 @@
         <v>13</v>
       </c>
       <c r="B290" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C290" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.45">
@@ -6882,10 +6882,10 @@
         <v>13</v>
       </c>
       <c r="B291" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C291" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
@@ -6893,10 +6893,10 @@
         <v>159</v>
       </c>
       <c r="B292" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C292" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.45">
@@ -6904,10 +6904,10 @@
         <v>159</v>
       </c>
       <c r="B293" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C293" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.45">
@@ -6915,10 +6915,10 @@
         <v>161</v>
       </c>
       <c r="B294" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C294" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
@@ -6926,10 +6926,10 @@
         <v>145</v>
       </c>
       <c r="B295" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">
@@ -6937,10 +6937,10 @@
         <v>145</v>
       </c>
       <c r="B296" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C296" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.45">
@@ -6948,10 +6948,10 @@
         <v>60</v>
       </c>
       <c r="B297" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C297" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.45">
@@ -6959,10 +6959,10 @@
         <v>60</v>
       </c>
       <c r="B298" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C298" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.45">
@@ -6970,10 +6970,10 @@
         <v>5</v>
       </c>
       <c r="B299" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C299" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">
@@ -6981,10 +6981,10 @@
         <v>5</v>
       </c>
       <c r="B300" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C300" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.45">
@@ -6992,10 +6992,10 @@
         <v>5</v>
       </c>
       <c r="B301" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C301" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.45">
@@ -7003,10 +7003,10 @@
         <v>32</v>
       </c>
       <c r="B302" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C302" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.45">
@@ -7014,10 +7014,10 @@
         <v>32</v>
       </c>
       <c r="B303" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C303" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.45">
@@ -7025,10 +7025,10 @@
         <v>32</v>
       </c>
       <c r="B304" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C304" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
@@ -7036,10 +7036,10 @@
         <v>67</v>
       </c>
       <c r="B305" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C305" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
@@ -7047,10 +7047,10 @@
         <v>69</v>
       </c>
       <c r="B306" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C306" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
@@ -7058,10 +7058,10 @@
         <v>69</v>
       </c>
       <c r="B307" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C307" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
@@ -7069,10 +7069,10 @@
         <v>69</v>
       </c>
       <c r="B308" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C308" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
@@ -7080,10 +7080,10 @@
         <v>15</v>
       </c>
       <c r="B309" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C309" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
@@ -7091,10 +7091,10 @@
         <v>112</v>
       </c>
       <c r="B310" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C310" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
@@ -7102,10 +7102,10 @@
         <v>112</v>
       </c>
       <c r="B311" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C311" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
@@ -7113,10 +7113,10 @@
         <v>114</v>
       </c>
       <c r="B312" t="s">
-        <v>335</v>
+        <v>563</v>
       </c>
       <c r="C312" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.45">
@@ -7124,10 +7124,10 @@
         <v>114</v>
       </c>
       <c r="B313" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.45">
@@ -7135,10 +7135,10 @@
         <v>114</v>
       </c>
       <c r="B314" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C314" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.45">
@@ -7146,10 +7146,10 @@
         <v>27</v>
       </c>
       <c r="B315" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C315" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.45">
@@ -7157,10 +7157,10 @@
         <v>27</v>
       </c>
       <c r="B316" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C316" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.45">
@@ -7168,10 +7168,10 @@
         <v>37</v>
       </c>
       <c r="B317" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C317" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.45">
@@ -7179,10 +7179,10 @@
         <v>37</v>
       </c>
       <c r="B318" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C318" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.45">
@@ -7190,10 +7190,10 @@
         <v>37</v>
       </c>
       <c r="B319" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C319" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.45">
@@ -7201,54 +7201,54 @@
         <v>23</v>
       </c>
       <c r="B320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C320" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B321" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C321" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B322" t="s">
         <v>342</v>
       </c>
-      <c r="B322" t="s">
-        <v>344</v>
-      </c>
       <c r="C322" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B323" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C323" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B324" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C324" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
@@ -7256,10 +7256,10 @@
         <v>17</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C325" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.45">
@@ -7267,10 +7267,10 @@
         <v>242</v>
       </c>
       <c r="B326" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C326" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.45">
@@ -7278,10 +7278,10 @@
         <v>81</v>
       </c>
       <c r="B327" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.45">
@@ -7289,10 +7289,10 @@
         <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C328" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.45">
@@ -7300,10 +7300,10 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C329" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.45">
@@ -7311,10 +7311,10 @@
         <v>85</v>
       </c>
       <c r="B330" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C330" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.45">
@@ -7322,10 +7322,10 @@
         <v>25</v>
       </c>
       <c r="B331" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C331" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.45">
@@ -7333,10 +7333,10 @@
         <v>25</v>
       </c>
       <c r="B332" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C332" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.45">
@@ -7344,10 +7344,10 @@
         <v>145</v>
       </c>
       <c r="B333" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C333" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.45">
@@ -7355,10 +7355,10 @@
         <v>27</v>
       </c>
       <c r="B334" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C334" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.45">
@@ -7366,10 +7366,10 @@
         <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C335" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.45">
@@ -7377,10 +7377,10 @@
         <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C336" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
@@ -7388,10 +7388,10 @@
         <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C337" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
@@ -7399,10 +7399,10 @@
         <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C338" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
@@ -7410,10 +7410,10 @@
         <v>9</v>
       </c>
       <c r="B339" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C339" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
@@ -7421,10 +7421,10 @@
         <v>85</v>
       </c>
       <c r="B340" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C340" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
@@ -7432,10 +7432,10 @@
         <v>25</v>
       </c>
       <c r="B341" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C341" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
@@ -7443,10 +7443,10 @@
         <v>48</v>
       </c>
       <c r="B342" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C342" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
@@ -7454,21 +7454,21 @@
         <v>203</v>
       </c>
       <c r="B343" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C343" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B344" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C344" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
@@ -7476,10 +7476,10 @@
         <v>186</v>
       </c>
       <c r="B345" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C345" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
@@ -7487,10 +7487,10 @@
         <v>205</v>
       </c>
       <c r="B346" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C346" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
@@ -7498,10 +7498,10 @@
         <v>205</v>
       </c>
       <c r="B347" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C347" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
@@ -7509,32 +7509,32 @@
         <v>55</v>
       </c>
       <c r="B348" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C348" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B349" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C349" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B350" t="s">
         <v>368</v>
       </c>
-      <c r="B350" t="s">
-        <v>370</v>
-      </c>
       <c r="C350" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
@@ -7542,10 +7542,10 @@
         <v>91</v>
       </c>
       <c r="B351" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C351" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.45">
@@ -7553,10 +7553,10 @@
         <v>91</v>
       </c>
       <c r="B352" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C352" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.45">
@@ -7564,10 +7564,10 @@
         <v>57</v>
       </c>
       <c r="B353" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C353" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.45">
@@ -7575,10 +7575,10 @@
         <v>11</v>
       </c>
       <c r="B354" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C354" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.45">
@@ -7586,10 +7586,10 @@
         <v>11</v>
       </c>
       <c r="B355" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C355" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.45">
@@ -7597,10 +7597,10 @@
         <v>13</v>
       </c>
       <c r="B356" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C356" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.45">
@@ -7608,10 +7608,10 @@
         <v>13</v>
       </c>
       <c r="B357" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C357" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.45">
@@ -7619,10 +7619,10 @@
         <v>159</v>
       </c>
       <c r="B358" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C358" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.45">
@@ -7630,10 +7630,10 @@
         <v>159</v>
       </c>
       <c r="B359" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C359" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.45">
@@ -7641,10 +7641,10 @@
         <v>159</v>
       </c>
       <c r="B360" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C360" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.45">
@@ -7652,10 +7652,10 @@
         <v>21</v>
       </c>
       <c r="B361" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C361" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.45">
@@ -7663,10 +7663,10 @@
         <v>161</v>
       </c>
       <c r="B362" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C362" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.45">
@@ -7674,10 +7674,10 @@
         <v>161</v>
       </c>
       <c r="B363" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C363" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.45">
@@ -7685,10 +7685,10 @@
         <v>145</v>
       </c>
       <c r="B364" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C364" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.45">
@@ -7696,10 +7696,10 @@
         <v>60</v>
       </c>
       <c r="B365" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C365" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.45">
@@ -7707,10 +7707,10 @@
         <v>60</v>
       </c>
       <c r="B366" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C366" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.45">
@@ -7718,10 +7718,10 @@
         <v>32</v>
       </c>
       <c r="B367" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C367" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.45">
@@ -7729,10 +7729,10 @@
         <v>32</v>
       </c>
       <c r="B368" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C368" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.45">
@@ -7740,10 +7740,10 @@
         <v>163</v>
       </c>
       <c r="B369" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C369" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.45">
@@ -7751,10 +7751,10 @@
         <v>163</v>
       </c>
       <c r="B370" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C370" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.45">
@@ -7762,10 +7762,10 @@
         <v>67</v>
       </c>
       <c r="B371" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C371" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.45">
@@ -7773,10 +7773,10 @@
         <v>67</v>
       </c>
       <c r="B372" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C372" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.45">
@@ -7784,10 +7784,10 @@
         <v>69</v>
       </c>
       <c r="B373" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C373" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.45">
@@ -7795,10 +7795,10 @@
         <v>69</v>
       </c>
       <c r="B374" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C374" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.45">
@@ -7806,10 +7806,10 @@
         <v>15</v>
       </c>
       <c r="B375" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C375" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.45">
@@ -7817,10 +7817,10 @@
         <v>72</v>
       </c>
       <c r="B376" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C376" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.45">
@@ -7828,10 +7828,10 @@
         <v>72</v>
       </c>
       <c r="B377" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C377" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.45">
@@ -7839,10 +7839,10 @@
         <v>52</v>
       </c>
       <c r="B378" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C378" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.45">
@@ -7850,10 +7850,10 @@
         <v>112</v>
       </c>
       <c r="B379" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C379" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.45">
@@ -7861,10 +7861,10 @@
         <v>112</v>
       </c>
       <c r="B380" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C380" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.45">
@@ -7872,10 +7872,10 @@
         <v>114</v>
       </c>
       <c r="B381" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C381" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.45">
@@ -7883,10 +7883,10 @@
         <v>114</v>
       </c>
       <c r="B382" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C382" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.45">
@@ -7894,10 +7894,10 @@
         <v>27</v>
       </c>
       <c r="B383" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C383" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.45">
@@ -7905,10 +7905,10 @@
         <v>27</v>
       </c>
       <c r="B384" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C384" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.45">
@@ -7916,10 +7916,10 @@
         <v>27</v>
       </c>
       <c r="B385" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C385" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.45">
@@ -7927,10 +7927,10 @@
         <v>23</v>
       </c>
       <c r="B386" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C386" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.45">
@@ -7938,10 +7938,10 @@
         <v>23</v>
       </c>
       <c r="B387" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C387" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.45">
@@ -7949,43 +7949,43 @@
         <v>23</v>
       </c>
       <c r="B388" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C388" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B389" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C389" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B390" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C390" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B391" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C391" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.45">
@@ -7993,10 +7993,10 @@
         <v>124</v>
       </c>
       <c r="B392" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C392" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.45">
@@ -8004,10 +8004,10 @@
         <v>124</v>
       </c>
       <c r="B393" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C393" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.45">
@@ -8015,10 +8015,10 @@
         <v>124</v>
       </c>
       <c r="B394" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C394" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.45">
@@ -8026,32 +8026,32 @@
         <v>124</v>
       </c>
       <c r="B395" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C395" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B396" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C396" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B397" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C397" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.45">
@@ -8059,10 +8059,10 @@
         <v>129</v>
       </c>
       <c r="B398" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C398" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.45">
@@ -8070,10 +8070,10 @@
         <v>35</v>
       </c>
       <c r="B399" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C399" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.45">
@@ -8081,10 +8081,10 @@
         <v>35</v>
       </c>
       <c r="B400" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C400" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.45">
@@ -8092,10 +8092,10 @@
         <v>35</v>
       </c>
       <c r="B401" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C401" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.45">
@@ -8103,10 +8103,10 @@
         <v>35</v>
       </c>
       <c r="B402" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C402" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.45">
@@ -8114,10 +8114,10 @@
         <v>35</v>
       </c>
       <c r="B403" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C403" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.45">
@@ -8125,10 +8125,10 @@
         <v>35</v>
       </c>
       <c r="B404" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C404" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.45">
@@ -8136,10 +8136,10 @@
         <v>17</v>
       </c>
       <c r="B405" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C405" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.45">
@@ -8147,10 +8147,10 @@
         <v>17</v>
       </c>
       <c r="B406" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C406" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.45">
@@ -8158,10 +8158,10 @@
         <v>17</v>
       </c>
       <c r="B407" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C407" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.45">
@@ -8169,10 +8169,10 @@
         <v>17</v>
       </c>
       <c r="B408" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C408" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.45">
@@ -8180,10 +8180,10 @@
         <v>17</v>
       </c>
       <c r="B409" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C409" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.45">
@@ -8191,10 +8191,10 @@
         <v>79</v>
       </c>
       <c r="B410" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C410" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.45">
@@ -8202,10 +8202,10 @@
         <v>242</v>
       </c>
       <c r="B411" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C411" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.45">
@@ -8213,10 +8213,10 @@
         <v>81</v>
       </c>
       <c r="B412" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C412" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.45">
@@ -8224,10 +8224,10 @@
         <v>81</v>
       </c>
       <c r="B413" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C413" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.45">
@@ -8235,10 +8235,10 @@
         <v>48</v>
       </c>
       <c r="B414" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C414" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.45">
@@ -8246,10 +8246,10 @@
         <v>203</v>
       </c>
       <c r="B415" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C415" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.45">
@@ -8257,10 +8257,10 @@
         <v>186</v>
       </c>
       <c r="B416" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C416" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.45">
@@ -8268,10 +8268,10 @@
         <v>163</v>
       </c>
       <c r="B417" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C417" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.45">
@@ -8279,10 +8279,10 @@
         <v>15</v>
       </c>
       <c r="B418" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C418" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.45">
@@ -8290,10 +8290,10 @@
         <v>35</v>
       </c>
       <c r="B419" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C419" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.45">
@@ -8301,21 +8301,21 @@
         <v>48</v>
       </c>
       <c r="B420" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C420" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B421" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C421" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.45">
@@ -8323,10 +8323,10 @@
         <v>57</v>
       </c>
       <c r="B422" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C422" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.45">
@@ -8334,10 +8334,10 @@
         <v>11</v>
       </c>
       <c r="B423" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C423" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.45">
@@ -8345,10 +8345,10 @@
         <v>159</v>
       </c>
       <c r="B424" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C424" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.45">
@@ -8356,10 +8356,10 @@
         <v>5</v>
       </c>
       <c r="B425" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C425" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.45">
@@ -8367,10 +8367,10 @@
         <v>32</v>
       </c>
       <c r="B426" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.45">
@@ -8378,10 +8378,10 @@
         <v>67</v>
       </c>
       <c r="B427" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.45">
@@ -8389,10 +8389,10 @@
         <v>15</v>
       </c>
       <c r="B428" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C428" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.45">
@@ -8400,10 +8400,10 @@
         <v>72</v>
       </c>
       <c r="B429" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C429" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.45">
@@ -8411,10 +8411,10 @@
         <v>27</v>
       </c>
       <c r="B430" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C430" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.45">
@@ -8422,10 +8422,10 @@
         <v>17</v>
       </c>
       <c r="B431" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C431" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.45">
@@ -8433,10 +8433,10 @@
         <v>79</v>
       </c>
       <c r="B432" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C432" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.45">
@@ -8444,10 +8444,10 @@
         <v>81</v>
       </c>
       <c r="B433" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C433" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.45">
@@ -8455,10 +8455,10 @@
         <v>13</v>
       </c>
       <c r="B434" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C434" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
@@ -8466,10 +8466,10 @@
         <v>81</v>
       </c>
       <c r="B435" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C435" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
@@ -8477,10 +8477,10 @@
         <v>85</v>
       </c>
       <c r="B436" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C436" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.45">
@@ -8488,10 +8488,10 @@
         <v>25</v>
       </c>
       <c r="B437" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C437" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.45">
@@ -8499,10 +8499,10 @@
         <v>48</v>
       </c>
       <c r="B438" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C438" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.45">
@@ -8510,21 +8510,21 @@
         <v>203</v>
       </c>
       <c r="B439" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C439" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B440" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C440" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.45">
@@ -8532,10 +8532,10 @@
         <v>186</v>
       </c>
       <c r="B441" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C441" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.45">
@@ -8543,10 +8543,10 @@
         <v>186</v>
       </c>
       <c r="B442" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C442" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.45">
@@ -8554,10 +8554,10 @@
         <v>205</v>
       </c>
       <c r="B443" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C443" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.45">
@@ -8565,10 +8565,10 @@
         <v>55</v>
       </c>
       <c r="B444" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C444" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.45">
@@ -8576,10 +8576,10 @@
         <v>55</v>
       </c>
       <c r="B445" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C445" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.45">
@@ -8587,10 +8587,10 @@
         <v>91</v>
       </c>
       <c r="B446" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C446" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.45">
@@ -8598,10 +8598,10 @@
         <v>91</v>
       </c>
       <c r="B447" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C447" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.45">
@@ -8609,10 +8609,10 @@
         <v>91</v>
       </c>
       <c r="B448" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C448" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.45">
@@ -8620,10 +8620,10 @@
         <v>57</v>
       </c>
       <c r="B449" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C449" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.45">
@@ -8631,10 +8631,10 @@
         <v>11</v>
       </c>
       <c r="B450" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C450" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.45">
@@ -8642,10 +8642,10 @@
         <v>11</v>
       </c>
       <c r="B451" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C451" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.45">
@@ -8653,10 +8653,10 @@
         <v>11</v>
       </c>
       <c r="B452" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C452" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.45">
@@ -8664,10 +8664,10 @@
         <v>11</v>
       </c>
       <c r="B453" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C453" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.45">
@@ -8675,10 +8675,10 @@
         <v>11</v>
       </c>
       <c r="B454" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C454" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.45">
@@ -8686,10 +8686,10 @@
         <v>11</v>
       </c>
       <c r="B455" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C455" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.45">
@@ -8697,10 +8697,10 @@
         <v>13</v>
       </c>
       <c r="B456" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C456" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.45">
@@ -8708,10 +8708,10 @@
         <v>13</v>
       </c>
       <c r="B457" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C457" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.45">
@@ -8719,10 +8719,10 @@
         <v>13</v>
       </c>
       <c r="B458" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C458" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.45">
@@ -8730,10 +8730,10 @@
         <v>21</v>
       </c>
       <c r="B459" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C459" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.45">
@@ -8741,10 +8741,10 @@
         <v>145</v>
       </c>
       <c r="B460" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C460" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.45">
@@ -8752,10 +8752,10 @@
         <v>145</v>
       </c>
       <c r="B461" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C461" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.45">
@@ -8763,10 +8763,10 @@
         <v>5</v>
       </c>
       <c r="B462" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C462" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.45">
@@ -8774,10 +8774,10 @@
         <v>5</v>
       </c>
       <c r="B463" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C463" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.45">
@@ -8785,10 +8785,10 @@
         <v>32</v>
       </c>
       <c r="B464" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C464" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.45">
@@ -8796,10 +8796,10 @@
         <v>69</v>
       </c>
       <c r="B465" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C465" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.45">
@@ -8807,10 +8807,10 @@
         <v>72</v>
       </c>
       <c r="B466" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C466" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.45">
@@ -8818,10 +8818,10 @@
         <v>52</v>
       </c>
       <c r="B467" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C467" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.45">
@@ -8829,10 +8829,10 @@
         <v>114</v>
       </c>
       <c r="B468" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C468" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.45">
@@ -8840,10 +8840,10 @@
         <v>114</v>
       </c>
       <c r="B469" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C469" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.45">
@@ -8851,10 +8851,10 @@
         <v>114</v>
       </c>
       <c r="B470" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C470" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.45">
@@ -8862,10 +8862,10 @@
         <v>27</v>
       </c>
       <c r="B471" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C471" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.45">
@@ -8873,10 +8873,10 @@
         <v>23</v>
       </c>
       <c r="B472" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C472" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.45">
@@ -8884,10 +8884,10 @@
         <v>23</v>
       </c>
       <c r="B473" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C473" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.45">
@@ -8895,32 +8895,32 @@
         <v>124</v>
       </c>
       <c r="B474" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C474" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B475" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C475" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B476" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C476" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.45">
@@ -8928,10 +8928,10 @@
         <v>129</v>
       </c>
       <c r="B477" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C477" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.45">
@@ -8939,10 +8939,10 @@
         <v>35</v>
       </c>
       <c r="B478" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C478" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.45">
@@ -8950,10 +8950,10 @@
         <v>35</v>
       </c>
       <c r="B479" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C479" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.45">
@@ -8961,10 +8961,10 @@
         <v>17</v>
       </c>
       <c r="B480" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="C480" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.45">
@@ -8972,10 +8972,10 @@
         <v>17</v>
       </c>
       <c r="B481" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C481" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.45">
@@ -8983,10 +8983,10 @@
         <v>79</v>
       </c>
       <c r="B482" t="s">
-        <v>478</v>
+        <v>561</v>
       </c>
       <c r="C482" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.45">
@@ -8994,10 +8994,10 @@
         <v>79</v>
       </c>
       <c r="B483" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C483" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.45">
@@ -9005,10 +9005,10 @@
         <v>79</v>
       </c>
       <c r="B484" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C484" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.45">
@@ -9016,10 +9016,10 @@
         <v>79</v>
       </c>
       <c r="B485" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C485" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.45">
@@ -9027,10 +9027,10 @@
         <v>242</v>
       </c>
       <c r="B486" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C486" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.45">
@@ -9038,10 +9038,10 @@
         <v>81</v>
       </c>
       <c r="B487" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C487" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.45">
@@ -9049,10 +9049,10 @@
         <v>81</v>
       </c>
       <c r="B488" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C488" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.45">
@@ -9060,10 +9060,10 @@
         <v>81</v>
       </c>
       <c r="B489" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C489" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.45">
@@ -9071,10 +9071,10 @@
         <v>81</v>
       </c>
       <c r="B490" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C490" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.45">
@@ -9082,10 +9082,10 @@
         <v>81</v>
       </c>
       <c r="B491" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C491" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.45">
@@ -9093,10 +9093,10 @@
         <v>81</v>
       </c>
       <c r="B492" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C492" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.45">
@@ -9104,10 +9104,10 @@
         <v>48</v>
       </c>
       <c r="B493" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C493" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.45">
@@ -9115,10 +9115,10 @@
         <v>203</v>
       </c>
       <c r="B494" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C494" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.45">
@@ -9126,21 +9126,21 @@
         <v>55</v>
       </c>
       <c r="B495" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C495" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A496" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B496" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C496" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.45">
@@ -9148,10 +9148,10 @@
         <v>57</v>
       </c>
       <c r="B497" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C497" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.45">
@@ -9159,10 +9159,10 @@
         <v>37</v>
       </c>
       <c r="B498" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C498" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.45">
@@ -9170,10 +9170,10 @@
         <v>129</v>
       </c>
       <c r="B499" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C499" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.45">
@@ -9181,10 +9181,10 @@
         <v>242</v>
       </c>
       <c r="B500" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C500" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.45">
@@ -9192,10 +9192,10 @@
         <v>48</v>
       </c>
       <c r="B501" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C501" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.45">
@@ -9203,10 +9203,10 @@
         <v>205</v>
       </c>
       <c r="B502" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C502" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.45">
@@ -9214,10 +9214,10 @@
         <v>55</v>
       </c>
       <c r="B503" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C503" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.45">
@@ -9225,10 +9225,10 @@
         <v>57</v>
       </c>
       <c r="B504" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C504" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.45">
@@ -9236,10 +9236,10 @@
         <v>57</v>
       </c>
       <c r="B505" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C505" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.45">
@@ -9247,10 +9247,10 @@
         <v>60</v>
       </c>
       <c r="B506" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C506" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.45">
@@ -9258,10 +9258,10 @@
         <v>60</v>
       </c>
       <c r="B507" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C507" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.45">
@@ -9269,10 +9269,10 @@
         <v>72</v>
       </c>
       <c r="B508" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C508" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.45">
@@ -9280,10 +9280,10 @@
         <v>72</v>
       </c>
       <c r="B509" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C509" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.45">
@@ -9291,10 +9291,10 @@
         <v>72</v>
       </c>
       <c r="B510" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C510" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.45">
@@ -9302,10 +9302,10 @@
         <v>52</v>
       </c>
       <c r="B511" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C511" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.45">
@@ -9313,10 +9313,10 @@
         <v>52</v>
       </c>
       <c r="B512" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C512" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.45">
@@ -9324,10 +9324,10 @@
         <v>37</v>
       </c>
       <c r="B513" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C513" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.45">
@@ -9335,21 +9335,21 @@
         <v>37</v>
       </c>
       <c r="B514" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C514" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B515" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C515" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.45">
@@ -9357,10 +9357,10 @@
         <v>129</v>
       </c>
       <c r="B516" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C516" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.45">
@@ -9368,10 +9368,10 @@
         <v>35</v>
       </c>
       <c r="B517" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C517" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.45">
@@ -9379,10 +9379,10 @@
         <v>159</v>
       </c>
       <c r="B518" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="C518" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.45">
@@ -9390,10 +9390,10 @@
         <v>85</v>
       </c>
       <c r="B519" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C519" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.45">
@@ -9401,10 +9401,10 @@
         <v>85</v>
       </c>
       <c r="B520" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C520" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.45">
@@ -9412,10 +9412,10 @@
         <v>85</v>
       </c>
       <c r="B521" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C521" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.45">
@@ -9423,10 +9423,10 @@
         <v>25</v>
       </c>
       <c r="B522" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C522" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.45">
@@ -9434,10 +9434,10 @@
         <v>48</v>
       </c>
       <c r="B523" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C523" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.45">
@@ -9445,10 +9445,10 @@
         <v>48</v>
       </c>
       <c r="B524" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C524" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.45">
@@ -9456,10 +9456,10 @@
         <v>203</v>
       </c>
       <c r="B525" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C525" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.45">
@@ -9467,32 +9467,32 @@
         <v>203</v>
       </c>
       <c r="B526" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C526" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B527" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C527" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B528" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C528" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.45">
@@ -9500,10 +9500,10 @@
         <v>186</v>
       </c>
       <c r="B529" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C529" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.45">
@@ -9511,10 +9511,10 @@
         <v>186</v>
       </c>
       <c r="B530" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C530" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.45">
@@ -9522,10 +9522,10 @@
         <v>186</v>
       </c>
       <c r="B531" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C531" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.45">
@@ -9533,10 +9533,10 @@
         <v>186</v>
       </c>
       <c r="B532" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C532" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.45">
@@ -9544,10 +9544,10 @@
         <v>205</v>
       </c>
       <c r="B533" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C533" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.45">
@@ -9555,10 +9555,10 @@
         <v>205</v>
       </c>
       <c r="B534" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C534" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.45">
@@ -9566,10 +9566,10 @@
         <v>205</v>
       </c>
       <c r="B535" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C535" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.45">
@@ -9577,21 +9577,21 @@
         <v>55</v>
       </c>
       <c r="B536" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C536" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B537" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C537" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.45">
@@ -9599,10 +9599,10 @@
         <v>57</v>
       </c>
       <c r="B538" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C538" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.45">
@@ -9610,10 +9610,10 @@
         <v>13</v>
       </c>
       <c r="B539" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C539" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.45">
@@ -9621,10 +9621,10 @@
         <v>159</v>
       </c>
       <c r="B540" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C540" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.45">
@@ -9632,10 +9632,10 @@
         <v>159</v>
       </c>
       <c r="B541" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C541" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.45">
@@ -9643,10 +9643,10 @@
         <v>159</v>
       </c>
       <c r="B542" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C542" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.45">
@@ -9654,10 +9654,10 @@
         <v>161</v>
       </c>
       <c r="B543" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C543" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.45">
@@ -9665,10 +9665,10 @@
         <v>161</v>
       </c>
       <c r="B544" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C544" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.45">
@@ -9676,10 +9676,10 @@
         <v>161</v>
       </c>
       <c r="B545" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.45">
@@ -9687,10 +9687,10 @@
         <v>145</v>
       </c>
       <c r="B546" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C546" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.45">
@@ -9698,10 +9698,10 @@
         <v>60</v>
       </c>
       <c r="B547" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C547" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.45">
@@ -9709,10 +9709,10 @@
         <v>5</v>
       </c>
       <c r="B548" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C548" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.45">
@@ -9720,10 +9720,10 @@
         <v>5</v>
       </c>
       <c r="B549" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C549" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.45">
@@ -9731,10 +9731,10 @@
         <v>5</v>
       </c>
       <c r="B550" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C550" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.45">
@@ -9742,10 +9742,10 @@
         <v>32</v>
       </c>
       <c r="B551" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C551" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.45">
@@ -9753,10 +9753,10 @@
         <v>32</v>
       </c>
       <c r="B552" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C552" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.45">
@@ -9764,10 +9764,10 @@
         <v>163</v>
       </c>
       <c r="B553" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C553" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.45">
@@ -9775,10 +9775,10 @@
         <v>163</v>
       </c>
       <c r="B554" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C554" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.45">
@@ -9786,10 +9786,10 @@
         <v>69</v>
       </c>
       <c r="B555" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C555" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.45">
@@ -9797,10 +9797,10 @@
         <v>52</v>
       </c>
       <c r="B556" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C556" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.45">
@@ -9808,10 +9808,10 @@
         <v>52</v>
       </c>
       <c r="B557" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C557" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.45">
@@ -9819,10 +9819,10 @@
         <v>52</v>
       </c>
       <c r="B558" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C558" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.45">
@@ -9830,10 +9830,10 @@
         <v>52</v>
       </c>
       <c r="B559" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C559" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.45">
@@ -9841,10 +9841,10 @@
         <v>112</v>
       </c>
       <c r="B560" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C560" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.45">
@@ -9852,10 +9852,10 @@
         <v>114</v>
       </c>
       <c r="B561" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C561" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.45">
@@ -9863,10 +9863,10 @@
         <v>114</v>
       </c>
       <c r="B562" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C562" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.45">
@@ -9874,10 +9874,10 @@
         <v>114</v>
       </c>
       <c r="B563" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C563" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.45">
@@ -9885,10 +9885,10 @@
         <v>37</v>
       </c>
       <c r="B564" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C564" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.45">
@@ -9896,32 +9896,32 @@
         <v>23</v>
       </c>
       <c r="B565" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C565" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B566" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C566" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B567" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C567" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.45">
@@ -9929,54 +9929,54 @@
         <v>124</v>
       </c>
       <c r="B568" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C568" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B569" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C569" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B570" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C570" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A571" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B571" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C571" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A572" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B572" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C572" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.45">
@@ -9984,10 +9984,10 @@
         <v>129</v>
       </c>
       <c r="B573" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C573" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.45">
@@ -9995,10 +9995,10 @@
         <v>35</v>
       </c>
       <c r="B574" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C574" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.45">
@@ -10006,10 +10006,10 @@
         <v>17</v>
       </c>
       <c r="B575" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C575" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.45">
@@ -10017,10 +10017,10 @@
         <v>17</v>
       </c>
       <c r="B576" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C576" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.45">
@@ -10028,10 +10028,10 @@
         <v>79</v>
       </c>
       <c r="B577" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C577" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.45">
@@ -10039,10 +10039,10 @@
         <v>242</v>
       </c>
       <c r="B578" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C578" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.45">
@@ -10050,10 +10050,10 @@
         <v>242</v>
       </c>
       <c r="B579" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C579" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.45">
@@ -10061,10 +10061,10 @@
         <v>242</v>
       </c>
       <c r="B580" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C580" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.45">
@@ -10072,10 +10072,10 @@
         <v>242</v>
       </c>
       <c r="B581" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C581" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.45">
@@ -10083,10 +10083,10 @@
         <v>242</v>
       </c>
       <c r="B582" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C582" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.45">
@@ -10094,10 +10094,10 @@
         <v>81</v>
       </c>
       <c r="B583" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C583" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.45">
@@ -10105,10 +10105,10 @@
         <v>91</v>
       </c>
       <c r="B584" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C584" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.45">
@@ -10116,10 +10116,10 @@
         <v>81</v>
       </c>
       <c r="B585" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C585" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.45">
@@ -10127,10 +10127,10 @@
         <v>21</v>
       </c>
       <c r="B586" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C586" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.45">
@@ -10138,21 +10138,21 @@
         <v>5</v>
       </c>
       <c r="B587" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C587" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A588" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B588" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C588" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.45">
@@ -10160,21 +10160,21 @@
         <v>17</v>
       </c>
       <c r="B589" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C589" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A590" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B590" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C590" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.45">
@@ -10182,32 +10182,32 @@
         <v>15</v>
       </c>
       <c r="B591" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C591" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A592" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B592" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C592" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A593" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B593" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C593" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.45">
@@ -10215,10 +10215,10 @@
         <v>85</v>
       </c>
       <c r="B594" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C594" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.45">
@@ -10226,10 +10226,10 @@
         <v>85</v>
       </c>
       <c r="B595" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C595" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.45">
@@ -10237,10 +10237,10 @@
         <v>55</v>
       </c>
       <c r="B596" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C596" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.45">
@@ -10248,10 +10248,10 @@
         <v>91</v>
       </c>
       <c r="B597" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C597" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.45">
@@ -10259,10 +10259,10 @@
         <v>57</v>
       </c>
       <c r="B598" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C598" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.45">
@@ -10270,10 +10270,10 @@
         <v>69</v>
       </c>
       <c r="B599" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C599" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.45">
@@ -10281,10 +10281,10 @@
         <v>112</v>
       </c>
       <c r="B600" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C600" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.45">
@@ -10292,10 +10292,10 @@
         <v>242</v>
       </c>
       <c r="B601" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C601" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.45">
@@ -10303,10 +10303,10 @@
         <v>48</v>
       </c>
       <c r="B602" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C602" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.45">
@@ -10314,10 +10314,10 @@
         <v>55</v>
       </c>
       <c r="B603" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C603" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.45">
@@ -10325,10 +10325,10 @@
         <v>91</v>
       </c>
       <c r="B604" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C604" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.45">
@@ -10336,10 +10336,10 @@
         <v>21</v>
       </c>
       <c r="B605" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C605" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.45">
@@ -10347,10 +10347,10 @@
         <v>5</v>
       </c>
       <c r="B606" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C606" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.45">
@@ -10358,10 +10358,10 @@
         <v>32</v>
       </c>
       <c r="B607" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C607" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.45">
@@ -10369,10 +10369,10 @@
         <v>67</v>
       </c>
       <c r="B608" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C608" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.45">
@@ -10380,10 +10380,10 @@
         <v>52</v>
       </c>
       <c r="B609" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C609" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.45">
@@ -10391,10 +10391,10 @@
         <v>124</v>
       </c>
       <c r="B610" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C610" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.45">
@@ -10402,10 +10402,10 @@
         <v>124</v>
       </c>
       <c r="B611" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C611" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.45">
@@ -10413,21 +10413,21 @@
         <v>203</v>
       </c>
       <c r="B612" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C612" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A613" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B613" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C613" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.45">
@@ -10435,10 +10435,10 @@
         <v>186</v>
       </c>
       <c r="B614" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C614" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.45">
@@ -10446,10 +10446,10 @@
         <v>21</v>
       </c>
       <c r="B615" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C615" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.45">
@@ -10457,10 +10457,10 @@
         <v>163</v>
       </c>
       <c r="B616" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C616" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.45">
@@ -10468,10 +10468,10 @@
         <v>69</v>
       </c>
       <c r="B617" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C617" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.45">
@@ -10479,10 +10479,10 @@
         <v>52</v>
       </c>
       <c r="B618" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C618" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.45">
@@ -10490,21 +10490,21 @@
         <v>114</v>
       </c>
       <c r="B619" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C619" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A620" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B620" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C620" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.45">
@@ -10512,10 +10512,10 @@
         <v>35</v>
       </c>
       <c r="B621" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C621" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.45">
@@ -10523,21 +10523,21 @@
         <v>186</v>
       </c>
       <c r="B622" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C622" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A623" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B623" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C623" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.45">
@@ -10545,10 +10545,10 @@
         <v>13</v>
       </c>
       <c r="B624" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C624" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.45">
@@ -10556,10 +10556,10 @@
         <v>145</v>
       </c>
       <c r="B625" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C625" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.45">
@@ -10567,10 +10567,10 @@
         <v>72</v>
       </c>
       <c r="B626" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C626" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.45">
@@ -10578,10 +10578,10 @@
         <v>72</v>
       </c>
       <c r="B627" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C627" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.45">
@@ -10589,21 +10589,21 @@
         <v>72</v>
       </c>
       <c r="B628" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C628" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A629" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B629" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C629" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.45">
@@ -10611,10 +10611,10 @@
         <v>55</v>
       </c>
       <c r="B630" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C630" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.45">
@@ -10622,10 +10622,10 @@
         <v>13</v>
       </c>
       <c r="B631" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C631" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.45">
@@ -10633,10 +10633,10 @@
         <v>15</v>
       </c>
       <c r="B632" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C632" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.45">
@@ -10644,10 +10644,10 @@
         <v>15</v>
       </c>
       <c r="B633" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C633" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.45">
@@ -10655,10 +10655,10 @@
         <v>242</v>
       </c>
       <c r="B634" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C634" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.45">
@@ -10666,10 +10666,10 @@
         <v>242</v>
       </c>
       <c r="B635" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C635" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
